--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nppa-Npr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nppa-Npr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03376566666666667</v>
+        <v>0.3176433333333333</v>
       </c>
       <c r="H2">
-        <v>0.101297</v>
+        <v>0.9529300000000001</v>
       </c>
       <c r="I2">
-        <v>0.02924559433686899</v>
+        <v>0.3649408890199488</v>
       </c>
       <c r="J2">
-        <v>0.02924559433686899</v>
+        <v>0.3649408890199488</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.3190146666666667</v>
+        <v>0.2689956666666667</v>
       </c>
       <c r="N2">
-        <v>0.9570440000000001</v>
+        <v>0.806987</v>
       </c>
       <c r="O2">
-        <v>0.1466753431539481</v>
+        <v>0.1265890356442505</v>
       </c>
       <c r="P2">
-        <v>0.1466753431539481</v>
+        <v>0.1265890356442505</v>
       </c>
       <c r="Q2">
-        <v>0.01077174289644445</v>
+        <v>0.08544468021222223</v>
       </c>
       <c r="R2">
-        <v>0.09694568606800001</v>
+        <v>0.7690021219100001</v>
       </c>
       <c r="S2">
-        <v>0.004289607585101421</v>
+        <v>0.04619751520819078</v>
       </c>
       <c r="T2">
-        <v>0.00428960758510142</v>
+        <v>0.04619751520819078</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03376566666666667</v>
+        <v>0.3176433333333333</v>
       </c>
       <c r="H3">
-        <v>0.101297</v>
+        <v>0.9529300000000001</v>
       </c>
       <c r="I3">
-        <v>0.02924559433686899</v>
+        <v>0.3649408890199488</v>
       </c>
       <c r="J3">
-        <v>0.02924559433686899</v>
+        <v>0.3649408890199488</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +626,22 @@
         <v>5.567869999999999</v>
       </c>
       <c r="O3">
-        <v>0.8533246568460519</v>
+        <v>0.8734109643557494</v>
       </c>
       <c r="P3">
-        <v>0.853324656846052</v>
+        <v>0.8734109643557494</v>
       </c>
       <c r="Q3">
-        <v>0.06266761415444444</v>
+        <v>0.5895322621222222</v>
       </c>
       <c r="R3">
-        <v>0.56400852739</v>
+        <v>5.3057903591</v>
       </c>
       <c r="S3">
-        <v>0.02495598675176757</v>
+        <v>0.318743373811758</v>
       </c>
       <c r="T3">
-        <v>0.02495598675176757</v>
+        <v>0.318743373811758</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +649,10 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -673,10 +670,10 @@
         <v>0.223331</v>
       </c>
       <c r="I4">
-        <v>0.06447819608524724</v>
+        <v>0.08552843722593914</v>
       </c>
       <c r="J4">
-        <v>0.06447819608524723</v>
+        <v>0.08552843722593914</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.3190146666666667</v>
+        <v>0.2689956666666667</v>
       </c>
       <c r="N4">
-        <v>0.9570440000000001</v>
+        <v>0.806987</v>
       </c>
       <c r="O4">
-        <v>0.1466753431539481</v>
+        <v>0.1265890356442505</v>
       </c>
       <c r="P4">
-        <v>0.1466753431539481</v>
+        <v>0.1265890356442505</v>
       </c>
       <c r="Q4">
-        <v>0.02374862150711112</v>
+        <v>0.02002502374411111</v>
       </c>
       <c r="R4">
-        <v>0.213737593564</v>
+        <v>0.180225213697</v>
       </c>
       <c r="S4">
-        <v>0.009457361536751193</v>
+        <v>0.01082696238859145</v>
       </c>
       <c r="T4">
-        <v>0.009457361536751191</v>
+        <v>0.01082696238859145</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +711,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -735,10 +732,10 @@
         <v>0.223331</v>
       </c>
       <c r="I5">
-        <v>0.06447819608524724</v>
+        <v>0.08552843722593914</v>
       </c>
       <c r="J5">
-        <v>0.06447819608524723</v>
+        <v>0.08552843722593914</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -753,10 +750,10 @@
         <v>5.567869999999999</v>
       </c>
       <c r="O5">
-        <v>0.8533246568460519</v>
+        <v>0.8734109643557494</v>
       </c>
       <c r="P5">
-        <v>0.853324656846052</v>
+        <v>0.8734109643557494</v>
       </c>
       <c r="Q5">
         <v>0.1381642194411111</v>
@@ -765,10 +762,10 @@
         <v>1.24347797497</v>
       </c>
       <c r="S5">
-        <v>0.05502083454849604</v>
+        <v>0.07470147483734768</v>
       </c>
       <c r="T5">
-        <v>0.05502083454849604</v>
+        <v>0.07470147483734768</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +773,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -797,10 +794,10 @@
         <v>0.934476</v>
       </c>
       <c r="I6">
-        <v>0.2697938341070317</v>
+        <v>0.3578736131801976</v>
       </c>
       <c r="J6">
-        <v>0.2697938341070316</v>
+        <v>0.3578736131801976</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.3190146666666667</v>
+        <v>0.2689956666666667</v>
       </c>
       <c r="N6">
-        <v>0.9570440000000001</v>
+        <v>0.806987</v>
       </c>
       <c r="O6">
-        <v>0.1466753431539481</v>
+        <v>0.1265890356442505</v>
       </c>
       <c r="P6">
-        <v>0.1466753431539481</v>
+        <v>0.1265890356442505</v>
       </c>
       <c r="Q6">
-        <v>0.09937051654933335</v>
+        <v>0.08378999820133334</v>
       </c>
       <c r="R6">
-        <v>0.8943346489440001</v>
+        <v>0.754109983812</v>
       </c>
       <c r="S6">
-        <v>0.03957210319846823</v>
+        <v>0.04530287557500476</v>
       </c>
       <c r="T6">
-        <v>0.03957210319846821</v>
+        <v>0.04530287557500476</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +835,10 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -859,10 +856,10 @@
         <v>0.934476</v>
       </c>
       <c r="I7">
-        <v>0.2697938341070317</v>
+        <v>0.3578736131801976</v>
       </c>
       <c r="J7">
-        <v>0.2697938341070316</v>
+        <v>0.3578736131801976</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -877,10 +874,10 @@
         <v>5.567869999999999</v>
       </c>
       <c r="O7">
-        <v>0.8533246568460519</v>
+        <v>0.8734109643557494</v>
       </c>
       <c r="P7">
-        <v>0.853324656846052</v>
+        <v>0.8734109643557494</v>
       </c>
       <c r="Q7">
         <v>0.5781156540133332</v>
@@ -889,10 +886,10 @@
         <v>5.203040886119999</v>
       </c>
       <c r="S7">
-        <v>0.2302217309085634</v>
+        <v>0.3125707376051928</v>
       </c>
       <c r="T7">
-        <v>0.2302217309085634</v>
+        <v>0.3125707376051928</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +897,10 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.08455500000000001</v>
+        <v>0.08275166666666667</v>
       </c>
       <c r="H8">
-        <v>0.253665</v>
+        <v>0.248255</v>
       </c>
       <c r="I8">
-        <v>0.07323596639053351</v>
+        <v>0.09507351054500056</v>
       </c>
       <c r="J8">
-        <v>0.07323596639053351</v>
+        <v>0.09507351054500057</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +930,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.3190146666666667</v>
+        <v>0.2689956666666667</v>
       </c>
       <c r="N8">
-        <v>0.9570440000000001</v>
+        <v>0.806987</v>
       </c>
       <c r="O8">
-        <v>0.1466753431539481</v>
+        <v>0.1265890356442505</v>
       </c>
       <c r="P8">
-        <v>0.1466753431539481</v>
+        <v>0.1265890356442505</v>
       </c>
       <c r="Q8">
-        <v>0.02697428514000001</v>
+        <v>0.02225983974277778</v>
       </c>
       <c r="R8">
-        <v>0.2427685662600001</v>
+        <v>0.200338557685</v>
       </c>
       <c r="S8">
-        <v>0.01074191050154251</v>
+        <v>0.0120352640152051</v>
       </c>
       <c r="T8">
-        <v>0.01074191050154251</v>
+        <v>0.01203526401520511</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +959,10 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +974,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.08455500000000001</v>
+        <v>0.08275166666666667</v>
       </c>
       <c r="H9">
-        <v>0.253665</v>
+        <v>0.248255</v>
       </c>
       <c r="I9">
-        <v>0.07323596639053351</v>
+        <v>0.09507351054500056</v>
       </c>
       <c r="J9">
-        <v>0.07323596639053351</v>
+        <v>0.09507351054500057</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +998,22 @@
         <v>5.567869999999999</v>
       </c>
       <c r="O9">
-        <v>0.8533246568460519</v>
+        <v>0.8734109643557494</v>
       </c>
       <c r="P9">
-        <v>0.853324656846052</v>
+        <v>0.8734109643557494</v>
       </c>
       <c r="Q9">
-        <v>0.15693041595</v>
+        <v>0.1535835074277778</v>
       </c>
       <c r="R9">
-        <v>1.41237374355</v>
+        <v>1.38225156685</v>
       </c>
       <c r="S9">
-        <v>0.06249405588899099</v>
+        <v>0.08303824652979544</v>
       </c>
       <c r="T9">
-        <v>0.062494055888991</v>
+        <v>0.08303824652979545</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1021,10 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1039,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.3595576666666667</v>
+        <v>0.08406599999999999</v>
       </c>
       <c r="H10">
-        <v>1.078673</v>
+        <v>0.252198</v>
       </c>
       <c r="I10">
-        <v>0.3114251456620974</v>
+        <v>0.09658355002891401</v>
       </c>
       <c r="J10">
-        <v>0.3114251456620974</v>
+        <v>0.09658355002891403</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1054,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.3190146666666667</v>
+        <v>0.2689956666666667</v>
       </c>
       <c r="N10">
-        <v>0.9570440000000001</v>
+        <v>0.806987</v>
       </c>
       <c r="O10">
-        <v>0.1466753431539481</v>
+        <v>0.1265890356442505</v>
       </c>
       <c r="P10">
-        <v>0.1466753431539481</v>
+        <v>0.1265890356442505</v>
       </c>
       <c r="Q10">
-        <v>0.1147041691791111</v>
+        <v>0.022613389714</v>
       </c>
       <c r="R10">
-        <v>1.032337522612</v>
+        <v>0.203520507426</v>
       </c>
       <c r="S10">
-        <v>0.04567839010675642</v>
+        <v>0.01222641845725845</v>
       </c>
       <c r="T10">
-        <v>0.04567839010675641</v>
+        <v>0.01222641845725845</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1083,10 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1101,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.3595576666666667</v>
+        <v>0.08406599999999999</v>
       </c>
       <c r="H11">
-        <v>1.078673</v>
+        <v>0.252198</v>
       </c>
       <c r="I11">
-        <v>0.3114251456620974</v>
+        <v>0.09658355002891401</v>
       </c>
       <c r="J11">
-        <v>0.3114251456620974</v>
+        <v>0.09658355002891403</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1125,146 +1122,22 @@
         <v>5.567869999999999</v>
       </c>
       <c r="O11">
-        <v>0.8533246568460519</v>
+        <v>0.8734109643557494</v>
       </c>
       <c r="P11">
-        <v>0.853324656846052</v>
+        <v>0.8734109643557494</v>
       </c>
       <c r="Q11">
-        <v>0.667323448501111</v>
+        <v>0.15602285314</v>
       </c>
       <c r="R11">
-        <v>6.005911036509999</v>
+        <v>1.40420567826</v>
       </c>
       <c r="S11">
-        <v>0.265746755555341</v>
+        <v>0.08435713157165556</v>
       </c>
       <c r="T11">
-        <v>0.265746755555341</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.2907416666666667</v>
-      </c>
-      <c r="H12">
-        <v>0.872225</v>
-      </c>
-      <c r="I12">
-        <v>0.2518212634182213</v>
-      </c>
-      <c r="J12">
-        <v>0.2518212634182212</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.3190146666666667</v>
-      </c>
-      <c r="N12">
-        <v>0.9570440000000001</v>
-      </c>
-      <c r="O12">
-        <v>0.1466753431539481</v>
-      </c>
-      <c r="P12">
-        <v>0.1466753431539481</v>
-      </c>
-      <c r="Q12">
-        <v>0.0927508558777778</v>
-      </c>
-      <c r="R12">
-        <v>0.8347577029000002</v>
-      </c>
-      <c r="S12">
-        <v>0.03693597022532837</v>
-      </c>
-      <c r="T12">
-        <v>0.03693597022532836</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.2907416666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.872225</v>
-      </c>
-      <c r="I13">
-        <v>0.2518212634182213</v>
-      </c>
-      <c r="J13">
-        <v>0.2518212634182212</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.855956666666666</v>
-      </c>
-      <c r="N13">
-        <v>5.567869999999999</v>
-      </c>
-      <c r="O13">
-        <v>0.8533246568460519</v>
-      </c>
-      <c r="P13">
-        <v>0.853324656846052</v>
-      </c>
-      <c r="Q13">
-        <v>0.5396039345277778</v>
-      </c>
-      <c r="R13">
-        <v>4.85643541075</v>
-      </c>
-      <c r="S13">
-        <v>0.2148852931928929</v>
-      </c>
-      <c r="T13">
-        <v>0.2148852931928929</v>
+        <v>0.08435713157165557</v>
       </c>
     </row>
   </sheetData>
